--- a/DL/Test Marks and Questions/Deep Learning Quiz 6.xlsx
+++ b/DL/Test Marks and Questions/Deep Learning Quiz 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABEEE046-E636-4880-80D7-6B0ACE114DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E185F4C9-B40D-48BE-8CF0-C018CE0CF3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2186,7 +2186,7 @@
         <v>100</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="s">
         <v>101</v>
@@ -2240,7 +2240,7 @@
         <v>108</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ2" t="s">
         <v>109</v>
@@ -2275,7 +2275,7 @@
         <v>86</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
@@ -2360,7 +2360,7 @@
         <v>115</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="s">
         <v>101</v>
@@ -2414,7 +2414,7 @@
         <v>108</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ3" t="s">
         <v>109</v>
@@ -2449,7 +2449,7 @@
         <v>86</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
@@ -2534,7 +2534,7 @@
         <v>115</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" t="s">
         <v>101</v>
@@ -2623,7 +2623,7 @@
         <v>86</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
@@ -2708,7 +2708,7 @@
         <v>115</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" t="s">
         <v>101</v>
@@ -2762,7 +2762,7 @@
         <v>108</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5" t="s">
         <v>109</v>
@@ -2797,7 +2797,7 @@
         <v>86</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
@@ -2882,7 +2882,7 @@
         <v>115</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" t="s">
         <v>128</v>
@@ -2936,7 +2936,7 @@
         <v>108</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6" t="s">
         <v>130</v>
@@ -2971,7 +2971,7 @@
         <v>86</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
@@ -3056,7 +3056,7 @@
         <v>115</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" t="s">
         <v>101</v>
@@ -3110,7 +3110,7 @@
         <v>108</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" t="s">
         <v>109</v>
@@ -3145,7 +3145,7 @@
         <v>86</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
@@ -3230,7 +3230,7 @@
         <v>115</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="s">
         <v>101</v>
@@ -3284,7 +3284,7 @@
         <v>108</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" t="s">
         <v>109</v>
@@ -3319,7 +3319,7 @@
         <v>86</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
@@ -3404,7 +3404,7 @@
         <v>115</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" t="s">
         <v>101</v>
@@ -3458,7 +3458,7 @@
         <v>108</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9" t="s">
         <v>109</v>
@@ -3578,7 +3578,7 @@
         <v>115</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" t="s">
         <v>101</v>
@@ -3632,7 +3632,7 @@
         <v>138</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" t="s">
         <v>139</v>
@@ -3667,7 +3667,7 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
@@ -3752,7 +3752,7 @@
         <v>115</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" t="s">
         <v>101</v>
@@ -3841,7 +3841,7 @@
         <v>86</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
@@ -3926,7 +3926,7 @@
         <v>100</v>
       </c>
       <c r="AW12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="s">
         <v>101</v>
@@ -4015,7 +4015,7 @@
         <v>86</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" t="s">
@@ -4100,7 +4100,7 @@
         <v>115</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="s">
         <v>101</v>
@@ -4154,7 +4154,7 @@
         <v>108</v>
       </c>
       <c r="BX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ13" t="s">
         <v>109</v>
@@ -4274,7 +4274,7 @@
         <v>100</v>
       </c>
       <c r="AW14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="s">
         <v>101</v>
@@ -4328,7 +4328,7 @@
         <v>108</v>
       </c>
       <c r="BX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14" t="s">
         <v>109</v>
@@ -4363,7 +4363,7 @@
         <v>86</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" t="s">
@@ -4448,7 +4448,7 @@
         <v>115</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" t="s">
         <v>101</v>
@@ -4502,7 +4502,7 @@
         <v>108</v>
       </c>
       <c r="BX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ15" t="s">
         <v>109</v>
@@ -4537,7 +4537,7 @@
         <v>86</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" t="s">
@@ -4622,7 +4622,7 @@
         <v>115</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" t="s">
         <v>101</v>
@@ -4676,7 +4676,7 @@
         <v>108</v>
       </c>
       <c r="BX16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" t="s">
         <v>109</v>
@@ -4796,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="AW17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="s">
         <v>101</v>
@@ -4850,7 +4850,7 @@
         <v>108</v>
       </c>
       <c r="BX17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" t="s">
         <v>109</v>
@@ -4885,7 +4885,7 @@
         <v>86</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
@@ -4970,7 +4970,7 @@
         <v>115</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" t="s">
         <v>101</v>
@@ -5024,7 +5024,7 @@
         <v>108</v>
       </c>
       <c r="BX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ18" t="s">
         <v>109</v>
@@ -5059,7 +5059,7 @@
         <v>86</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" t="s">
@@ -5144,7 +5144,7 @@
         <v>115</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="s">
         <v>101</v>
@@ -5198,7 +5198,7 @@
         <v>108</v>
       </c>
       <c r="BX19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ19" t="s">
         <v>109</v>
@@ -5233,7 +5233,7 @@
         <v>86</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" t="s">
@@ -5318,7 +5318,7 @@
         <v>115</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="s">
         <v>101</v>
@@ -5372,7 +5372,7 @@
         <v>108</v>
       </c>
       <c r="BX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ20" t="s">
         <v>109</v>
@@ -5407,7 +5407,7 @@
         <v>86</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" t="s">
@@ -5492,7 +5492,7 @@
         <v>115</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="s">
         <v>101</v>
@@ -5546,7 +5546,7 @@
         <v>108</v>
       </c>
       <c r="BX21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ21" t="s">
         <v>109</v>
@@ -5666,7 +5666,7 @@
         <v>100</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="s">
         <v>101</v>
@@ -5720,7 +5720,7 @@
         <v>108</v>
       </c>
       <c r="BX22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ22" t="s">
         <v>109</v>
@@ -5755,7 +5755,7 @@
         <v>86</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" t="s">
@@ -5840,7 +5840,7 @@
         <v>115</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="s">
         <v>101</v>
@@ -5894,7 +5894,7 @@
         <v>108</v>
       </c>
       <c r="BX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ23" t="s">
         <v>130</v>
@@ -5929,7 +5929,7 @@
         <v>86</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" t="s">
@@ -6014,7 +6014,7 @@
         <v>115</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" t="s">
         <v>101</v>
@@ -6068,7 +6068,7 @@
         <v>108</v>
       </c>
       <c r="BX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24" t="s">
         <v>109</v>
